--- a/dashboard/KAM_Dashboard_FY26.xlsx
+++ b/dashboard/KAM_Dashboard_FY26.xlsx
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -481,12 +481,34 @@
         <v>-11</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v/>
+      </c>
+      <c r="B7" t="str">
+        <v/>
+      </c>
+      <c r="C7" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Open Pipeline as of Date (₹ Cr)</v>
+      </c>
+      <c r="B8" t="str">
+        <v/>
+      </c>
+      <c r="C8">
+        <v>150</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C8"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1413,7 +1435,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1555,12 +1577,23 @@
         <v>2</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>pipelineCoverage</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Pipeline Coverage</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C12"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C13"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/dashboard/KAM_Dashboard_FY26.xlsx
+++ b/dashboard/KAM_Dashboard_FY26.xlsx
@@ -1,7 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://crmnext-my.sharepoint.com/personal/devansh_goel_businessnext_com/Documents/Desktop/New folder/Code/kam-dashboard/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_CE816B4D491278D6BBF0648333642381BE8C8A1C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Annual KPIs" sheetId="1" r:id="rId1"/>
     <sheet name="Monthly Billing" sheetId="2" r:id="rId2"/>
@@ -13,37 +23,333 @@
     <sheet name="Weightages" sheetId="8" r:id="rId8"/>
     <sheet name="Instructions" sheetId="9" r:id="rId9"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="105">
+  <si>
+    <t>KAM Dashboard - Annual KPIs</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Metric</t>
+  </si>
+  <si>
+    <t>Target FY26</t>
+  </si>
+  <si>
+    <t>Achievement Till Date</t>
+  </si>
+  <si>
+    <t>NDR</t>
+  </si>
+  <si>
+    <t>GDR</t>
+  </si>
+  <si>
+    <t>NPS Score</t>
+  </si>
+  <si>
+    <t>Open Pipeline as of Date (₹ Cr)</t>
+  </si>
+  <si>
+    <t>On-Time Billing (INR Cr)</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Target INR Cr</t>
+  </si>
+  <si>
+    <t>Achievement INR Cr</t>
+  </si>
+  <si>
+    <t>Apr'26</t>
+  </si>
+  <si>
+    <t>May'26</t>
+  </si>
+  <si>
+    <t>Jun'26</t>
+  </si>
+  <si>
+    <t>Jul'26</t>
+  </si>
+  <si>
+    <t>Aug'26</t>
+  </si>
+  <si>
+    <t>Sep'26</t>
+  </si>
+  <si>
+    <t>Oct'26</t>
+  </si>
+  <si>
+    <t>Nov'26</t>
+  </si>
+  <si>
+    <t>Dec'26</t>
+  </si>
+  <si>
+    <t>Jan'27</t>
+  </si>
+  <si>
+    <t>Feb'27</t>
+  </si>
+  <si>
+    <t>Mar'27</t>
+  </si>
+  <si>
+    <t>On-Time Collection (INR Cr)</t>
+  </si>
+  <si>
+    <t>QBRs Held</t>
+  </si>
+  <si>
+    <t>Quarter</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Achievement</t>
+  </si>
+  <si>
+    <t>Q1 FY26</t>
+  </si>
+  <si>
+    <t>Q2 FY26</t>
+  </si>
+  <si>
+    <t>Q3 FY26</t>
+  </si>
+  <si>
+    <t>Q4 FY26</t>
+  </si>
+  <si>
+    <t>Hero Stories</t>
+  </si>
+  <si>
+    <t>Quarterly ARR &amp; Service Revenue (INR Cr)</t>
+  </si>
+  <si>
+    <t>ARR Target</t>
+  </si>
+  <si>
+    <t>ARR Achievement</t>
+  </si>
+  <si>
+    <t>Service Rev Target</t>
+  </si>
+  <si>
+    <t>Service Rev Achievement</t>
+  </si>
+  <si>
+    <t>Account Owner Performance (YTD)</t>
+  </si>
+  <si>
+    <t>Account Owner</t>
+  </si>
+  <si>
+    <t>ARR Achievement (Cr)</t>
+  </si>
+  <si>
+    <t>Billing (Cr)</t>
+  </si>
+  <si>
+    <t>Collection (Cr)</t>
+  </si>
+  <si>
+    <t>Ansu Jain</t>
+  </si>
+  <si>
+    <t>Apoorv Anand</t>
+  </si>
+  <si>
+    <t>Bhavik Solani</t>
+  </si>
+  <si>
+    <t>Bhavna Sharma</t>
+  </si>
+  <si>
+    <t>Neel Neogi</t>
+  </si>
+  <si>
+    <t>Rajeswari Das</t>
+  </si>
+  <si>
+    <t>Rushi</t>
+  </si>
+  <si>
+    <t>Sachin Gupta</t>
+  </si>
+  <si>
+    <t>Samprus Mascaren</t>
+  </si>
+  <si>
+    <t>Vishwanath Gurav</t>
+  </si>
+  <si>
+    <t>OKR Weightages (Must total 100)</t>
+  </si>
+  <si>
+    <t>Metric Key</t>
+  </si>
+  <si>
+    <t>Metric Label</t>
+  </si>
+  <si>
+    <t>Weight (%)</t>
+  </si>
+  <si>
+    <t>arr</t>
+  </si>
+  <si>
+    <t>ARR</t>
+  </si>
+  <si>
+    <t>serviceRev</t>
+  </si>
+  <si>
+    <t>Service Revenue</t>
+  </si>
+  <si>
+    <t>ndr</t>
+  </si>
+  <si>
+    <t>gdr</t>
+  </si>
+  <si>
+    <t>nps</t>
+  </si>
+  <si>
+    <t>billing</t>
+  </si>
+  <si>
+    <t>On-time Billing</t>
+  </si>
+  <si>
+    <t>collection</t>
+  </si>
+  <si>
+    <t>On-time Collection</t>
+  </si>
+  <si>
+    <t>qbr</t>
+  </si>
+  <si>
+    <t>heroStories</t>
+  </si>
+  <si>
+    <t>pipelineCoverage</t>
+  </si>
+  <si>
+    <t>Pipeline Coverage</t>
+  </si>
+  <si>
+    <t>KAM Dashboard - Input File Instructions</t>
+  </si>
+  <si>
+    <t>Generated for: KAM FY26</t>
+  </si>
+  <si>
+    <t>HOW TO UPDATE THE DASHBOARD:</t>
+  </si>
+  <si>
+    <t>1. Edit the data in any of the sheets (Annual KPIs, Monthly Billing, Monthly Collection, Quarterly QBRs, Hero Stories, Quarterly ARR &amp; Service Rev, Account Owners, Weightages)</t>
+  </si>
+  <si>
+    <t>2. Save this Excel file</t>
+  </si>
+  <si>
+    <t>3. The dashboard will automatically refresh within a few seconds!</t>
+  </si>
+  <si>
+    <t>IMPORTANT RULES:</t>
+  </si>
+  <si>
+    <t>- Do NOT rename the sheets</t>
+  </si>
+  <si>
+    <t>- Do NOT change the column headers (Row 3 in each sheet)</t>
+  </si>
+  <si>
+    <t>- Keep the same row structure (months, quarters, etc.)</t>
+  </si>
+  <si>
+    <t>- Leave cells EMPTY (not zero) for months with no data yet</t>
+  </si>
+  <si>
+    <t>- The backend server must be running (node server.cjs)</t>
+  </si>
+  <si>
+    <t>- Weightages MUST total 100%</t>
+  </si>
+  <si>
+    <t>SHEET DESCRIPTIONS:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Annual KPIs      -&gt; ARR, Service Revenue, NDR, GDR, NPS Score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Monthly Billing   -&gt; On-time billing target vs achievement (Apr-Mar)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Monthly Collection-&gt; On-time collection target vs achievement (Apr-Mar)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Quarterly QBRs    -&gt; QBRs held per quarter (Q1-Q4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Hero Stories      -&gt; Hero stories delivered per quarter (Q1-Q4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Quarterly ARR &amp; Service Rev -&gt; Quarterly ARR and Service Revenue breakdown (Q1-Q4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Account Owners    -&gt; Per-account-owner YTD performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Weightages        -&gt; OKR metric weights (must total 100)</t>
+  </si>
+  <si>
+    <t>GENERATING TEMPLATES:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  node generate-template.cjs                  (KAM FY26 with sample data)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  node generate-template.cjs FY27             (KAM FY27 with empty achievements)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  node generate-template.cjs KAM FY28         (KAM FY28 with empty achievements)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  (Other functions like Sales, Finance will be added in the future)</t>
+  </si>
+  <si>
+    <t>FILE NAMING:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  This file: KAM_Dashboard_FY26.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Pattern: {FUNCTION}_Dashboard_FY{NN}.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  The server auto-discovers files matching this pattern.</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -72,14 +378,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -404,64 +719,67 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22.83203125" customWidth="1"/>
     <col min="2" max="2" width="18.83203125" customWidth="1"/>
     <col min="3" max="3" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>KAM Dashboard - Annual KPIs</v>
-      </c>
-      <c r="B1" t="str">
-        <v/>
-      </c>
-      <c r="C1" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v/>
-      </c>
-      <c r="B2" t="str">
-        <v/>
-      </c>
-      <c r="C2" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Metric</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Target FY26</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Achievement Till Date</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>NDR</v>
+    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
       </c>
       <c r="B4">
         <v>1.2</v>
       </c>
       <c r="C4">
-        <v>1.15</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>GDR</v>
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0.95</v>
@@ -470,9 +788,9 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>NPS Score</v>
+    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>7</v>
       </c>
       <c r="B6">
         <v>30</v>
@@ -481,23 +799,23 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v/>
-      </c>
-      <c r="B7" t="str">
-        <v/>
-      </c>
-      <c r="C7" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>Open Pipeline as of Date (₹ Cr)</v>
-      </c>
-      <c r="B8" t="str">
-        <v/>
+    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
       </c>
       <c r="C8">
         <v>150</v>
@@ -507,60 +825,62 @@
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C8"/>
+    <ignoredError sqref="A1:C8" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.83203125" customWidth="1"/>
     <col min="2" max="2" width="18.83203125" customWidth="1"/>
     <col min="3" max="3" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>On-Time Billing (INR Cr)</v>
-      </c>
-      <c r="B1" t="str">
-        <v/>
-      </c>
-      <c r="C1" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v/>
-      </c>
-      <c r="B2" t="str">
-        <v/>
-      </c>
-      <c r="C2" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Month</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Target INR Cr</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Achievement INR Cr</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Apr'26</v>
+    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>13</v>
       </c>
       <c r="B4">
         <v>25</v>
@@ -569,9 +889,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>May'26</v>
+    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>14</v>
       </c>
       <c r="B5">
         <v>25</v>
@@ -580,9 +900,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Jun'26</v>
+    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>15</v>
       </c>
       <c r="B6">
         <v>25</v>
@@ -591,9 +911,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>Jul'26</v>
+    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>16</v>
       </c>
       <c r="B7">
         <v>25</v>
@@ -602,9 +922,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>Aug'26</v>
+    <row r="8" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>17</v>
       </c>
       <c r="B8">
         <v>25</v>
@@ -613,9 +933,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>Sep'26</v>
+    <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>18</v>
       </c>
       <c r="B9">
         <v>25</v>
@@ -624,9 +944,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>Oct'26</v>
+    <row r="10" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>19</v>
       </c>
       <c r="B10">
         <v>25</v>
@@ -635,9 +955,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>Nov'26</v>
+    <row r="11" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>20</v>
       </c>
       <c r="B11">
         <v>25</v>
@@ -646,9 +966,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>Dec'26</v>
+    <row r="12" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>21</v>
       </c>
       <c r="B12">
         <v>25</v>
@@ -657,9 +977,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>Jan'27</v>
+    <row r="13" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>22</v>
       </c>
       <c r="B13">
         <v>25</v>
@@ -668,86 +988,88 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>Feb'27</v>
+    <row r="14" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>23</v>
       </c>
       <c r="B14">
         <v>25</v>
       </c>
-      <c r="C14" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>Mar'27</v>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>24</v>
       </c>
       <c r="B15">
         <v>25</v>
       </c>
-      <c r="C15" t="str">
-        <v/>
+      <c r="C15" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C15"/>
+    <ignoredError sqref="A1:C15" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.83203125" customWidth="1"/>
     <col min="2" max="2" width="18.83203125" customWidth="1"/>
     <col min="3" max="3" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>On-Time Collection (INR Cr)</v>
-      </c>
-      <c r="B1" t="str">
-        <v/>
-      </c>
-      <c r="C1" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v/>
-      </c>
-      <c r="B2" t="str">
-        <v/>
-      </c>
-      <c r="C2" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Month</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Target INR Cr</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Achievement INR Cr</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Apr'26</v>
+    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>13</v>
       </c>
       <c r="B4">
         <v>30</v>
@@ -756,9 +1078,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>May'26</v>
+    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>14</v>
       </c>
       <c r="B5">
         <v>30</v>
@@ -767,9 +1089,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Jun'26</v>
+    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>15</v>
       </c>
       <c r="B6">
         <v>30</v>
@@ -778,9 +1100,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>Jul'26</v>
+    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>16</v>
       </c>
       <c r="B7">
         <v>30</v>
@@ -789,9 +1111,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>Aug'26</v>
+    <row r="8" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>17</v>
       </c>
       <c r="B8">
         <v>30</v>
@@ -800,9 +1122,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>Sep'26</v>
+    <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>18</v>
       </c>
       <c r="B9">
         <v>30</v>
@@ -811,9 +1133,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>Oct'26</v>
+    <row r="10" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>19</v>
       </c>
       <c r="B10">
         <v>30</v>
@@ -822,9 +1144,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>Nov'26</v>
+    <row r="11" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>20</v>
       </c>
       <c r="B11">
         <v>30</v>
@@ -833,9 +1155,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>Dec'26</v>
+    <row r="12" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>21</v>
       </c>
       <c r="B12">
         <v>30</v>
@@ -844,9 +1166,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>Jan'27</v>
+    <row r="13" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>22</v>
       </c>
       <c r="B13">
         <v>30</v>
@@ -855,86 +1177,87 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>Feb'27</v>
+    <row r="14" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>23</v>
       </c>
       <c r="B14">
         <v>30</v>
       </c>
-      <c r="C14" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>Mar'27</v>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>24</v>
       </c>
       <c r="B15">
         <v>30</v>
       </c>
-      <c r="C15" t="str">
-        <v/>
+      <c r="C15" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C15"/>
+    <ignoredError sqref="A1:C15" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" customWidth="1"/>
+    <col min="1" max="2" width="12.83203125" customWidth="1"/>
     <col min="3" max="3" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>QBRs Held</v>
-      </c>
-      <c r="B1" t="str">
-        <v/>
-      </c>
-      <c r="C1" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v/>
-      </c>
-      <c r="B2" t="str">
-        <v/>
-      </c>
-      <c r="C2" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Quarter</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Target</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Achievement</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Q1 FY26</v>
+    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>30</v>
       </c>
       <c r="B4">
         <v>25</v>
@@ -943,9 +1266,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Q2 FY26</v>
+    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>31</v>
       </c>
       <c r="B5">
         <v>25</v>
@@ -954,9 +1277,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Q3 FY26</v>
+    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>32</v>
       </c>
       <c r="B6">
         <v>25</v>
@@ -965,9 +1288,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>Q4 FY26</v>
+    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>33</v>
       </c>
       <c r="B7">
         <v>25</v>
@@ -980,60 +1303,61 @@
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C7"/>
+    <ignoredError sqref="A1:C7" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" customWidth="1"/>
+    <col min="1" max="2" width="12.83203125" customWidth="1"/>
     <col min="3" max="3" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Hero Stories</v>
-      </c>
-      <c r="B1" t="str">
-        <v/>
-      </c>
-      <c r="C1" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v/>
-      </c>
-      <c r="B2" t="str">
-        <v/>
-      </c>
-      <c r="C2" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Quarter</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Target</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Achievement</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Q1 FY26</v>
+    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>30</v>
       </c>
       <c r="B4">
         <v>25</v>
@@ -1042,9 +1366,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Q2 FY26</v>
+    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>31</v>
       </c>
       <c r="B5">
         <v>25</v>
@@ -1053,9 +1377,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Q3 FY26</v>
+    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>32</v>
       </c>
       <c r="B6">
         <v>25</v>
@@ -1064,9 +1388,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>Q4 FY26</v>
+    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>33</v>
       </c>
       <c r="B7">
         <v>25</v>
@@ -1079,80 +1403,81 @@
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C7"/>
+    <ignoredError sqref="A1:C7" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.83203125" customWidth="1"/>
     <col min="2" max="2" width="16.83203125" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" customWidth="1"/>
+    <col min="3" max="4" width="18.83203125" customWidth="1"/>
     <col min="5" max="5" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Quarterly ARR &amp; Service Revenue (INR Cr)</v>
-      </c>
-      <c r="B1" t="str">
-        <v/>
-      </c>
-      <c r="C1" t="str">
-        <v/>
-      </c>
-      <c r="D1" t="str">
-        <v/>
-      </c>
-      <c r="E1" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v/>
-      </c>
-      <c r="B2" t="str">
-        <v/>
-      </c>
-      <c r="C2" t="str">
-        <v/>
-      </c>
-      <c r="D2" t="str">
-        <v/>
-      </c>
-      <c r="E2" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Quarter</v>
-      </c>
-      <c r="B3" t="str">
-        <v>ARR Target</v>
-      </c>
-      <c r="C3" t="str">
-        <v>ARR Achievement</v>
-      </c>
-      <c r="D3" t="str">
-        <v>Service Rev Target</v>
-      </c>
-      <c r="E3" t="str">
-        <v>Service Rev Achievement</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Q1 FY26</v>
+    <row r="1" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>30</v>
       </c>
       <c r="B4">
         <v>14.35</v>
@@ -1167,9 +1492,9 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Q2 FY26</v>
+    <row r="5" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>31</v>
       </c>
       <c r="B5">
         <v>14.35</v>
@@ -1184,9 +1509,9 @@
         <v>31.2</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Q3 FY26</v>
+    <row r="6" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>32</v>
       </c>
       <c r="B6">
         <v>14.35</v>
@@ -1198,12 +1523,12 @@
         <v>32.75</v>
       </c>
       <c r="E6">
-        <v>35.8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>Q4 FY26</v>
+        <v>35.799999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>33</v>
       </c>
       <c r="B7">
         <v>14.35</v>
@@ -1222,70 +1547,71 @@
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E7"/>
+    <ignoredError sqref="A1:E7" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" customWidth="1"/>
-    <col min="2" max="2" width="22.83203125" customWidth="1"/>
+    <col min="1" max="2" width="22.83203125" customWidth="1"/>
     <col min="3" max="3" width="16.83203125" customWidth="1"/>
     <col min="4" max="4" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Account Owner Performance (YTD)</v>
-      </c>
-      <c r="B1" t="str">
-        <v/>
-      </c>
-      <c r="C1" t="str">
-        <v/>
-      </c>
-      <c r="D1" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v/>
-      </c>
-      <c r="B2" t="str">
-        <v/>
-      </c>
-      <c r="C2" t="str">
-        <v/>
-      </c>
-      <c r="D2" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Account Owner</v>
-      </c>
-      <c r="B3" t="str">
-        <v>ARR Achievement (Cr)</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Billing (Cr)</v>
-      </c>
-      <c r="D3" t="str">
-        <v>Collection (Cr)</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Ansu Jain</v>
+    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>45</v>
       </c>
       <c r="B4">
         <v>0.78</v>
@@ -1297,23 +1623,23 @@
         <v>15.82</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Apoorv Anand</v>
+    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>46</v>
       </c>
       <c r="B5">
         <v>2.09</v>
       </c>
       <c r="C5">
-        <v>17.67</v>
+        <v>17.670000000000002</v>
       </c>
       <c r="D5">
         <v>20.75</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Bhavik Solani</v>
+    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>47</v>
       </c>
       <c r="B6">
         <v>0.7</v>
@@ -1325,9 +1651,9 @@
         <v>50.37</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>Bhavna Sharma</v>
+    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>48</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1339,9 +1665,9 @@
         <v>27.64</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>Neel Neogi</v>
+    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>49</v>
       </c>
       <c r="B8">
         <v>-0.85</v>
@@ -1353,9 +1679,9 @@
         <v>3.45</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>Rajeswari Das</v>
+    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>50</v>
       </c>
       <c r="B9">
         <v>-0.4</v>
@@ -1367,9 +1693,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>Rushi</v>
+    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>51</v>
       </c>
       <c r="B10">
         <v>1.2</v>
@@ -1381,9 +1707,9 @@
         <v>16.02</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>Sachin Gupta</v>
+    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>52</v>
       </c>
       <c r="B11">
         <v>-2.42</v>
@@ -1395,9 +1721,9 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>Samprus Mascaren</v>
+    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>53</v>
       </c>
       <c r="B12">
         <v>-1.6</v>
@@ -1409,15 +1735,15 @@
         <v>15.75</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>Vishwanath Gurav</v>
+    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>54</v>
       </c>
       <c r="B13">
         <v>19.53</v>
       </c>
       <c r="C13">
-        <v>65.99</v>
+        <v>65.989999999999995</v>
       </c>
       <c r="D13">
         <v>77.98</v>
@@ -1427,162 +1753,164 @@
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D13"/>
+    <ignoredError sqref="A1:D13" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.83203125" customWidth="1"/>
     <col min="2" max="2" width="22.83203125" customWidth="1"/>
     <col min="3" max="3" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>OKR Weightages (Must total 100)</v>
-      </c>
-      <c r="B1" t="str">
-        <v/>
-      </c>
-      <c r="C1" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v/>
-      </c>
-      <c r="B2" t="str">
-        <v/>
-      </c>
-      <c r="C2" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Metric Key</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Metric Label</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Weight (%)</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>arr</v>
-      </c>
-      <c r="B4" t="str">
-        <v>ARR</v>
+    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
       </c>
       <c r="C4">
         <v>25</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>serviceRev</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Service Revenue</v>
+    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
       </c>
       <c r="C5">
         <v>20</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>ndr</v>
-      </c>
-      <c r="B6" t="str">
-        <v>NDR</v>
+    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
       </c>
       <c r="C6">
         <v>10</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>gdr</v>
-      </c>
-      <c r="B7" t="str">
-        <v>GDR</v>
+    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
       </c>
       <c r="C7">
         <v>10</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>nps</v>
-      </c>
-      <c r="B8" t="str">
-        <v>NPS Score</v>
+    <row r="8" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
       </c>
       <c r="C8">
         <v>5</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>billing</v>
-      </c>
-      <c r="B9" t="str">
-        <v>On-time Billing</v>
+    <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
       </c>
       <c r="C9">
         <v>15</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>collection</v>
-      </c>
-      <c r="B10" t="str">
-        <v>On-time Collection</v>
+    <row r="10" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
       </c>
       <c r="C10">
         <v>10</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>qbr</v>
-      </c>
-      <c r="B11" t="str">
-        <v>QBRs Held</v>
+    <row r="11" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>heroStories</v>
-      </c>
-      <c r="B12" t="str">
-        <v>Hero Stories</v>
+    <row r="12" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>pipelineCoverage</v>
-      </c>
-      <c r="B13" t="str">
-        <v>Pipeline Coverage</v>
+    <row r="13" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1592,210 +1920,213 @@
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C13"/>
+    <ignoredError sqref="A1:C13" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:A37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="100.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>KAM Dashboard - Input File Instructions</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Generated for: KAM FY26</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>HOW TO UPDATE THE DASHBOARD:</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>1. Edit the data in any of the sheets (Annual KPIs, Monthly Billing, Monthly Collection, Quarterly QBRs, Hero Stories, Quarterly ARR &amp; Service Rev, Account Owners, Weightages)</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>2. Save this Excel file</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>3. The dashboard will automatically refresh within a few seconds!</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>IMPORTANT RULES:</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>- Do NOT rename the sheets</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>- Do NOT change the column headers (Row 3 in each sheet)</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>- Keep the same row structure (months, quarters, etc.)</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>- Leave cells EMPTY (not zero) for months with no data yet</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>- The backend server must be running (node server.cjs)</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>- Weightages MUST total 100%</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>SHEET DESCRIPTIONS:</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v xml:space="preserve">  Annual KPIs      -&gt; ARR, Service Revenue, NDR, GDR, NPS Score</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v xml:space="preserve">  Monthly Billing   -&gt; On-time billing target vs achievement (Apr-Mar)</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v xml:space="preserve">  Monthly Collection-&gt; On-time collection target vs achievement (Apr-Mar)</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v xml:space="preserve">  Quarterly QBRs    -&gt; QBRs held per quarter (Q1-Q4)</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v xml:space="preserve">  Hero Stories      -&gt; Hero stories delivered per quarter (Q1-Q4)</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v xml:space="preserve">  Quarterly ARR &amp; Service Rev -&gt; Quarterly ARR and Service Revenue breakdown (Q1-Q4)</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v xml:space="preserve">  Account Owners    -&gt; Per-account-owner YTD performance</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v xml:space="preserve">  Weightages        -&gt; OKR metric weights (must total 100)</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>GENERATING TEMPLATES:</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v xml:space="preserve">  node generate-template.cjs                  (KAM FY26 with sample data)</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v xml:space="preserve">  node generate-template.cjs FY27             (KAM FY27 with empty achievements)</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="str">
-        <v xml:space="preserve">  node generate-template.cjs KAM FY28         (KAM FY28 with empty achievements)</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="str">
-        <v xml:space="preserve">  (Other functions like Sales, Finance will be added in the future)</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>FILE NAMING:</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="str">
-        <v xml:space="preserve">  This file: KAM_Dashboard_FY26.xlsx</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="str">
-        <v xml:space="preserve">  Pattern: {FUNCTION}_Dashboard_FY{NN}.xlsx</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v xml:space="preserve">  The server auto-discovers files matching this pattern.</v>
+    <row r="1" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A37"/>
+    <ignoredError sqref="A1:A37" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/dashboard/KAM_Dashboard_FY26.xlsx
+++ b/dashboard/KAM_Dashboard_FY26.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://crmnext-my.sharepoint.com/personal/devansh_goel_businessnext_com/Documents/Desktop/New folder/Code/kam-dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_CE816B4D491278D6BBF0648333642381BE8C8A1C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_287AFBE6CB9CEE75FF8927CC49F99982C9141A9D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76749AEC-CE98-4A55-98A0-148EA8BD5004}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Annual KPIs" sheetId="1" r:id="rId1"/>
@@ -396,6 +396,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -722,18 +726,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="22.83203125" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" customWidth="1"/>
-    <col min="3" max="3" width="22.83203125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -744,7 +743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -755,7 +754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -766,7 +765,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -777,7 +776,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -788,7 +787,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -799,7 +798,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -810,7 +809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -838,14 +837,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="12.83203125" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" customWidth="1"/>
-    <col min="3" max="3" width="22.83203125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -856,7 +850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -867,7 +861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -878,7 +872,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -889,7 +883,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -900,7 +894,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -911,7 +905,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -922,7 +916,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -933,7 +927,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -944,7 +938,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -955,7 +949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -966,7 +960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -977,7 +971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -988,7 +982,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -999,7 +993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1027,14 +1021,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="12.83203125" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" customWidth="1"/>
-    <col min="3" max="3" width="22.83203125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -1045,7 +1034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1056,7 +1045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1067,7 +1056,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1078,7 +1067,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1089,7 +1078,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1100,7 +1089,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1111,7 +1100,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1122,7 +1111,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1133,7 +1122,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1144,7 +1133,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1155,7 +1144,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1166,7 +1155,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1177,7 +1166,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1188,7 +1177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1216,13 +1205,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="2" width="12.83203125" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -1233,7 +1218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1244,7 +1229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1255,7 +1240,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -1266,7 +1251,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -1277,7 +1262,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -1288,7 +1273,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1314,15 +1299,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="2" width="12.83203125" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -1333,7 +1316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1344,7 +1327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1355,7 +1338,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -1366,7 +1349,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -1377,7 +1360,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -1388,7 +1371,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1414,17 +1397,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="12.83203125" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" customWidth="1"/>
-    <col min="3" max="4" width="18.83203125" customWidth="1"/>
-    <col min="5" max="5" width="22.83203125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -1441,7 +1420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1458,7 +1437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1475,7 +1454,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -1492,7 +1471,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -1509,7 +1488,7 @@
         <v>31.2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -1526,7 +1505,7 @@
         <v>35.799999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1558,16 +1537,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="2" width="22.83203125" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
@@ -1581,7 +1557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1595,7 +1571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -1609,7 +1585,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -1623,7 +1599,7 @@
         <v>15.82</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -1637,7 +1613,7 @@
         <v>20.75</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -1651,7 +1627,7 @@
         <v>50.37</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -1665,7 +1641,7 @@
         <v>27.64</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -1679,7 +1655,7 @@
         <v>3.45</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -1693,7 +1669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -1707,7 +1683,7 @@
         <v>16.02</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -1721,7 +1697,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -1735,7 +1711,7 @@
         <v>15.75</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -1764,16 +1740,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="18.83203125" customWidth="1"/>
-    <col min="2" max="2" width="22.83203125" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
@@ -1784,7 +1757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1795,7 +1768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -1806,7 +1779,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -1814,10 +1787,10 @@
         <v>60</v>
       </c>
       <c r="C4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -1825,10 +1798,10 @@
         <v>62</v>
       </c>
       <c r="C5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>63</v>
       </c>
@@ -1839,7 +1812,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -1850,7 +1823,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -1858,10 +1831,10 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -1869,10 +1842,10 @@
         <v>67</v>
       </c>
       <c r="C9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -1880,10 +1853,10 @@
         <v>69</v>
       </c>
       <c r="C10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -1891,10 +1864,10 @@
         <v>26</v>
       </c>
       <c r="C11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>71</v>
       </c>
@@ -1902,10 +1875,10 @@
         <v>34</v>
       </c>
       <c r="C12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>72</v>
       </c>
@@ -1913,7 +1886,7 @@
         <v>73</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1922,7 +1895,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C13" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C3 A13:C13 A4:B4 A5:B5 A6:B6 A7:B7 A8:B8 A9:B9 A10:B10 A11:B11 A12:B12" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1933,192 +1906,189 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="100.83203125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>104</v>
       </c>

--- a/dashboard/KAM_Dashboard_FY26.xlsx
+++ b/dashboard/KAM_Dashboard_FY26.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://crmnext-my.sharepoint.com/personal/devansh_goel_businessnext_com/Documents/Desktop/New folder/Code/kam-dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_287AFBE6CB9CEE75FF8927CC49F99982C9141A9D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76749AEC-CE98-4A55-98A0-148EA8BD5004}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="11_287AFBE6CB9CEE75FF8927CC49F99982C9141A9D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87ACF9FC-5E06-4780-99C2-94D2E012895F}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Annual KPIs" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="105">
   <si>
     <t>KAM Dashboard - Annual KPIs</t>
   </si>
@@ -349,6 +349,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -378,9 +381,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,10 +400,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -727,7 +727,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -817,7 +817,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>150</v>
+        <v>33.340000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -826,7 +826,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C8" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C7 A8:B8" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -835,7 +835,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -879,8 +881,8 @@
       <c r="B4">
         <v>25</v>
       </c>
-      <c r="C4">
-        <v>23</v>
+      <c r="C4" s="2">
+        <v>4.1383649999999994</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -890,8 +892,8 @@
       <c r="B5">
         <v>25</v>
       </c>
-      <c r="C5">
-        <v>30</v>
+      <c r="C5" s="2">
+        <v>15.240641700000001</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -901,8 +903,8 @@
       <c r="B6">
         <v>25</v>
       </c>
-      <c r="C6">
-        <v>11</v>
+      <c r="C6" s="2">
+        <v>13.327025299999999</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -912,8 +914,8 @@
       <c r="B7">
         <v>25</v>
       </c>
-      <c r="C7">
-        <v>33</v>
+      <c r="C7" s="2">
+        <v>20.950151599999998</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -923,8 +925,8 @@
       <c r="B8">
         <v>25</v>
       </c>
-      <c r="C8">
-        <v>41</v>
+      <c r="C8" s="2">
+        <v>5.5789846749999992</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -934,8 +936,8 @@
       <c r="B9">
         <v>25</v>
       </c>
-      <c r="C9">
-        <v>11</v>
+      <c r="C9" s="2">
+        <v>21.451520899999998</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -945,8 +947,8 @@
       <c r="B10">
         <v>25</v>
       </c>
-      <c r="C10">
-        <v>3</v>
+      <c r="C10" s="2">
+        <v>9.4403080999999993</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -956,8 +958,8 @@
       <c r="B11">
         <v>25</v>
       </c>
-      <c r="C11">
-        <v>1</v>
+      <c r="C11" s="2">
+        <v>66.977550100000002</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -967,8 +969,8 @@
       <c r="B12">
         <v>25</v>
       </c>
-      <c r="C12">
-        <v>1</v>
+      <c r="C12" s="2">
+        <v>26.671124347999999</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -978,8 +980,8 @@
       <c r="B13">
         <v>25</v>
       </c>
-      <c r="C13">
-        <v>33</v>
+      <c r="C13" s="2">
+        <v>19.512248599999999</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -989,8 +991,8 @@
       <c r="B14">
         <v>25</v>
       </c>
-      <c r="C14" t="s">
-        <v>1</v>
+      <c r="C14" s="2">
+        <v>7.6861787000000001</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -1010,7 +1012,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C15" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C3 A15:C15 A4:B14" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1019,7 +1021,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -1064,7 +1068,7 @@
         <v>30</v>
       </c>
       <c r="C4">
-        <v>32</v>
+        <v>10.172505237999999</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -1075,7 +1079,7 @@
         <v>30</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>16.232625200000001</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -1086,7 +1090,7 @@
         <v>30</v>
       </c>
       <c r="C6">
-        <v>32</v>
+        <v>12.341751695000001</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -1097,7 +1101,7 @@
         <v>30</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>14.565941799999999</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -1108,7 +1112,7 @@
         <v>30</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>10.404058984000001</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -1119,7 +1123,7 @@
         <v>30</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>23.378130599999999</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -1130,7 +1134,7 @@
         <v>30</v>
       </c>
       <c r="C10">
-        <v>23</v>
+        <v>14.196419000000001</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -1141,7 +1145,7 @@
         <v>30</v>
       </c>
       <c r="C11">
-        <v>44</v>
+        <v>13.919755455799999</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -1152,7 +1156,7 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>30</v>
+        <v>23.662476788000003</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -1163,7 +1167,7 @@
         <v>30</v>
       </c>
       <c r="C13">
-        <v>32</v>
+        <v>13.130050776999999</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -1173,8 +1177,8 @@
       <c r="B14">
         <v>30</v>
       </c>
-      <c r="C14" t="s">
-        <v>1</v>
+      <c r="C14">
+        <v>9.3312188690000006</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -1194,7 +1198,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C15" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C3 A15:C15 A4:B14" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1203,7 +1207,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -1398,7 +1404,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1458,68 +1464,68 @@
       <c r="A4" t="s">
         <v>30</v>
       </c>
-      <c r="B4">
-        <v>14.35</v>
-      </c>
-      <c r="C4">
-        <v>5.2</v>
-      </c>
-      <c r="D4">
-        <v>32.75</v>
-      </c>
-      <c r="E4">
-        <v>30.5</v>
+      <c r="B4" s="2">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3.1119899999999999E-2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>27.27</v>
+      </c>
+      <c r="E4" s="2">
+        <v>30.227573322000005</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>31</v>
       </c>
-      <c r="B5">
-        <v>14.35</v>
-      </c>
-      <c r="C5">
-        <v>6.8</v>
-      </c>
-      <c r="D5">
-        <v>32.75</v>
-      </c>
-      <c r="E5">
-        <v>31.2</v>
+      <c r="B5" s="2">
+        <v>13.95</v>
+      </c>
+      <c r="C5" s="2">
+        <v>19.833181799999998</v>
+      </c>
+      <c r="D5" s="2">
+        <v>27.27</v>
+      </c>
+      <c r="E5" s="2">
+        <v>32.60451681</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>32</v>
       </c>
-      <c r="B6">
-        <v>14.35</v>
-      </c>
-      <c r="C6">
-        <v>4.53</v>
-      </c>
-      <c r="D6">
-        <v>32.75</v>
-      </c>
-      <c r="E6">
-        <v>35.799999999999997</v>
+      <c r="B6" s="2">
+        <v>11.625</v>
+      </c>
+      <c r="C6" s="2">
+        <v>-0.70756160000000001</v>
+      </c>
+      <c r="D6" s="2">
+        <v>27.27</v>
+      </c>
+      <c r="E6" s="2">
+        <v>28.724957527000011</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>33</v>
       </c>
-      <c r="B7">
-        <v>14.35</v>
-      </c>
-      <c r="C7">
-        <v>2.5</v>
-      </c>
-      <c r="D7">
-        <v>32.75</v>
-      </c>
-      <c r="E7">
-        <v>23.5</v>
+      <c r="B7" s="2">
+        <v>11.625</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>27.27</v>
+      </c>
+      <c r="E7" s="2">
+        <v>25.169769212999988</v>
       </c>
     </row>
   </sheetData>
@@ -1528,7 +1534,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:E7" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:E3 A4:A7" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1538,7 +1544,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1731,7 +1737,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:D13" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:D3 A4:A13" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1741,7 +1747,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>

--- a/dashboard/KAM_Dashboard_FY26.xlsx
+++ b/dashboard/KAM_Dashboard_FY26.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://crmnext-my.sharepoint.com/personal/devansh_goel_businessnext_com/Documents/Desktop/New folder/Code/kam-dashboard/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://crmnext-my.sharepoint.com/personal/devansh_goel_businessnext_com/Documents/Desktop/New folder/Code/dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="11_287AFBE6CB9CEE75FF8927CC49F99982C9141A9D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87ACF9FC-5E06-4780-99C2-94D2E012895F}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="14_{9329AC9F-7251-4B51-8136-87E98A47E201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CAA2465-8F0A-48BB-B556-0CB1FB7AA628}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Annual KPIs" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,25 @@
     <sheet name="Weightages" sheetId="8" r:id="rId8"/>
     <sheet name="Instructions" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="105">
   <si>
     <t>KAM Dashboard - Annual KPIs</t>
   </si>
@@ -383,8 +396,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -733,13 +746,13 @@
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -833,26 +846,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -863,7 +879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -874,137 +890,147 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B4">
-        <v>25</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="B4" s="1">
+        <v>12.2401196</v>
+      </c>
+      <c r="C4" s="1">
         <v>4.1383649999999994</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B5">
-        <v>25</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="B5" s="1">
+        <v>45.873390749999999</v>
+      </c>
+      <c r="C5" s="1">
         <v>15.240641700000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6">
-        <v>25</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="B6" s="1">
+        <v>17.959842599999998</v>
+      </c>
+      <c r="C6" s="1">
         <v>13.327025299999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B7">
-        <v>25</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="B7" s="1">
+        <v>35.709941299999997</v>
+      </c>
+      <c r="C7" s="1">
         <v>20.950151599999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B8">
-        <v>25</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="B8" s="1">
+        <v>11.6152499</v>
+      </c>
+      <c r="C8" s="1">
         <v>5.5789846749999992</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9">
-        <v>25</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="B9" s="1">
+        <v>31.928199900000003</v>
+      </c>
+      <c r="C9" s="1">
         <v>21.451520899999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B10">
-        <v>25</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="B10" s="1">
+        <v>31.396266600000004</v>
+      </c>
+      <c r="C10" s="1">
         <v>9.4403080999999993</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B11">
-        <v>25</v>
-      </c>
-      <c r="C11" s="2">
+      <c r="B11" s="1">
+        <v>39.890963999999997</v>
+      </c>
+      <c r="C11" s="1">
         <v>66.977550100000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B12">
-        <v>25</v>
-      </c>
-      <c r="C12" s="2">
+      <c r="B12" s="1">
+        <v>37.852322048000005</v>
+      </c>
+      <c r="C12" s="1">
         <v>26.671124347999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="B13">
-        <v>25</v>
-      </c>
-      <c r="C13" s="2">
+      <c r="B13" s="1">
+        <v>31.732866250000001</v>
+      </c>
+      <c r="C13" s="1">
         <v>19.512248599999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B14">
-        <v>25</v>
-      </c>
-      <c r="C14" s="2">
+      <c r="B14" s="1">
+        <v>29.524683900000003</v>
+      </c>
+      <c r="C14" s="1">
         <v>7.6861787000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="B15">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1</v>
-      </c>
+      <c r="B15" s="1">
+        <v>36.433806050000001</v>
+      </c>
+      <c r="C15" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1012,7 +1038,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C3 A15:C15 A4:B14" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C3 A15 A4:A14" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1022,19 +1048,19 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1064,10 +1090,10 @@
       <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B4">
-        <v>30</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="1">
+        <v>10.587243711999999</v>
+      </c>
+      <c r="C4" s="1">
         <v>10.172505237999999</v>
       </c>
     </row>
@@ -1075,10 +1101,10 @@
       <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B5">
-        <v>30</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="1">
+        <v>14.570945153199997</v>
+      </c>
+      <c r="C5" s="1">
         <v>16.232625200000001</v>
       </c>
     </row>
@@ -1086,10 +1112,10 @@
       <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6">
-        <v>30</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="1">
+        <v>13.042712700000001</v>
+      </c>
+      <c r="C6" s="1">
         <v>12.341751695000001</v>
       </c>
     </row>
@@ -1097,10 +1123,10 @@
       <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B7">
-        <v>30</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="1">
+        <v>10.565674063500001</v>
+      </c>
+      <c r="C7" s="1">
         <v>14.565941799999999</v>
       </c>
     </row>
@@ -1108,10 +1134,10 @@
       <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B8">
-        <v>30</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="1">
+        <v>22.186550787999998</v>
+      </c>
+      <c r="C8" s="1">
         <v>10.404058984000001</v>
       </c>
     </row>
@@ -1119,10 +1145,10 @@
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9">
-        <v>30</v>
-      </c>
-      <c r="C9">
+      <c r="B9" s="1">
+        <v>27.562345714999999</v>
+      </c>
+      <c r="C9" s="1">
         <v>23.378130599999999</v>
       </c>
     </row>
@@ -1130,10 +1156,10 @@
       <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B10">
-        <v>30</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="1">
+        <v>21.088647905779997</v>
+      </c>
+      <c r="C10" s="1">
         <v>14.196419000000001</v>
       </c>
     </row>
@@ -1141,10 +1167,10 @@
       <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B11">
-        <v>30</v>
-      </c>
-      <c r="C11">
+      <c r="B11" s="1">
+        <v>18.630064737999998</v>
+      </c>
+      <c r="C11" s="1">
         <v>13.919755455799999</v>
       </c>
     </row>
@@ -1152,10 +1178,10 @@
       <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B12">
-        <v>30</v>
-      </c>
-      <c r="C12">
+      <c r="B12" s="1">
+        <v>20.465125691120001</v>
+      </c>
+      <c r="C12" s="1">
         <v>23.662476788000003</v>
       </c>
     </row>
@@ -1163,10 +1189,10 @@
       <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="B13">
-        <v>30</v>
-      </c>
-      <c r="C13">
+      <c r="B13" s="1">
+        <v>14.031910436199999</v>
+      </c>
+      <c r="C13" s="1">
         <v>13.130050776999999</v>
       </c>
     </row>
@@ -1174,10 +1200,10 @@
       <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B14">
-        <v>30</v>
-      </c>
-      <c r="C14">
+      <c r="B14" s="1">
+        <v>17.351059494974404</v>
+      </c>
+      <c r="C14" s="1">
         <v>9.3312188690000006</v>
       </c>
     </row>
@@ -1185,12 +1211,10 @@
       <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="B15">
-        <v>30</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1</v>
-      </c>
+      <c r="B15" s="1">
+        <v>22.271835690400003</v>
+      </c>
+      <c r="C15" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1198,29 +1222,29 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C3 A15:C15 A4:B14" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C3 A15 A4:A14" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1250,45 +1274,77 @@
       <c r="A4" t="s">
         <v>30</v>
       </c>
-      <c r="B4">
-        <v>25</v>
-      </c>
-      <c r="C4">
-        <v>22</v>
+      <c r="B4" s="1">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>31</v>
       </c>
-      <c r="B5">
-        <v>25</v>
-      </c>
-      <c r="C5">
-        <v>21</v>
+      <c r="B5" s="1">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>32</v>
       </c>
-      <c r="B6">
-        <v>25</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="1">
         <v>20</v>
+      </c>
+      <c r="C6" s="1">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>33</v>
       </c>
-      <c r="B7">
-        <v>25</v>
-      </c>
-      <c r="C7">
-        <v>15</v>
-      </c>
+      <c r="B7" s="1">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1296,7 +1352,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C7" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C3 A4:A7" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1312,13 +1368,13 @@
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1404,25 +1460,25 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B4" sqref="B4:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1464,16 +1520,16 @@
       <c r="A4" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>9.3000000000000007</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>3.1119899999999999E-2</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>27.27</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>30.227573322000005</v>
       </c>
     </row>
@@ -1481,16 +1537,16 @@
       <c r="A5" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>13.95</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>19.833181799999998</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>27.27</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>32.60451681</v>
       </c>
     </row>
@@ -1498,16 +1554,16 @@
       <c r="A6" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>11.625</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>-0.70756160000000001</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>27.27</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>28.724957527000011</v>
       </c>
     </row>
@@ -1515,16 +1571,16 @@
       <c r="A7" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>11.625</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>0</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>27.27</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>25.169769212999988</v>
       </c>
     </row>
@@ -1550,16 +1606,16 @@
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1746,20 +1802,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>

--- a/dashboard/KAM_Dashboard_FY26.xlsx
+++ b/dashboard/KAM_Dashboard_FY26.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://crmnext-my.sharepoint.com/personal/devansh_goel_businessnext_com/Documents/Desktop/New folder/Code/dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="14_{9329AC9F-7251-4B51-8136-87E98A47E201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CAA2465-8F0A-48BB-B556-0CB1FB7AA628}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="14_{9329AC9F-7251-4B51-8136-87E98A47E201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E0CF3F3-8A06-47F7-8312-ED56E94734FE}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Annual KPIs" sheetId="1" r:id="rId1"/>
@@ -740,7 +740,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -848,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1460,7 +1460,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1599,11 +1599,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.4140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.4140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">

--- a/dashboard/KAM_Dashboard_FY26.xlsx
+++ b/dashboard/KAM_Dashboard_FY26.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://crmnext-my.sharepoint.com/personal/devansh_goel_businessnext_com/Documents/Desktop/New folder/Code/dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="14_{9329AC9F-7251-4B51-8136-87E98A47E201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E0CF3F3-8A06-47F7-8312-ED56E94734FE}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="14_{9329AC9F-7251-4B51-8136-87E98A47E201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09320084-D02C-40EE-A7C1-5E81A302B2E6}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Annual KPIs" sheetId="1" r:id="rId1"/>
@@ -394,10 +394,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -849,7 +850,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -898,9 +899,9 @@
         <v>12.2401196</v>
       </c>
       <c r="C4" s="1">
-        <v>4.1383649999999994</v>
-      </c>
-      <c r="D4" s="1"/>
+        <v>4.233365</v>
+      </c>
+      <c r="D4" s="3"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -911,9 +912,9 @@
         <v>45.873390749999999</v>
       </c>
       <c r="C5" s="1">
-        <v>15.240641700000001</v>
-      </c>
-      <c r="D5" s="1"/>
+        <v>14.377390500000001</v>
+      </c>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -923,9 +924,9 @@
         <v>17.959842599999998</v>
       </c>
       <c r="C6" s="1">
-        <v>13.327025299999999</v>
-      </c>
-      <c r="D6" s="1"/>
+        <v>13.1970253</v>
+      </c>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -935,9 +936,9 @@
         <v>35.709941299999997</v>
       </c>
       <c r="C7" s="1">
-        <v>20.950151599999998</v>
-      </c>
-      <c r="D7" s="1"/>
+        <v>20.910151599999999</v>
+      </c>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
@@ -947,9 +948,9 @@
         <v>11.6152499</v>
       </c>
       <c r="C8" s="1">
-        <v>5.5789846749999992</v>
-      </c>
-      <c r="D8" s="1"/>
+        <v>5.5789847000000004</v>
+      </c>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
@@ -959,9 +960,9 @@
         <v>31.928199900000003</v>
       </c>
       <c r="C9" s="1">
-        <v>21.451520899999998</v>
-      </c>
-      <c r="D9" s="1"/>
+        <v>21.392120899999998</v>
+      </c>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -971,9 +972,9 @@
         <v>31.396266600000004</v>
       </c>
       <c r="C10" s="1">
-        <v>9.4403080999999993</v>
-      </c>
-      <c r="D10" s="1"/>
+        <v>8.1453403000000009</v>
+      </c>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
@@ -983,9 +984,9 @@
         <v>39.890963999999997</v>
       </c>
       <c r="C11" s="1">
-        <v>66.977550100000002</v>
-      </c>
-      <c r="D11" s="1"/>
+        <v>67.188736399999996</v>
+      </c>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
@@ -995,9 +996,9 @@
         <v>37.852322048000005</v>
       </c>
       <c r="C12" s="1">
-        <v>26.671124347999999</v>
-      </c>
-      <c r="D12" s="1"/>
+        <v>24.515263399999998</v>
+      </c>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
@@ -1007,9 +1008,9 @@
         <v>31.732866250000001</v>
       </c>
       <c r="C13" s="1">
-        <v>19.512248599999999</v>
-      </c>
-      <c r="D13" s="1"/>
+        <v>14.112248599999999</v>
+      </c>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
@@ -1019,9 +1020,9 @@
         <v>29.524683900000003</v>
       </c>
       <c r="C14" s="1">
-        <v>7.6861787000000001</v>
-      </c>
-      <c r="D14" s="1"/>
+        <v>6.4880142999999997</v>
+      </c>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
@@ -1047,8 +1048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1094,7 +1095,7 @@
         <v>10.587243711999999</v>
       </c>
       <c r="C4" s="1">
-        <v>10.172505237999999</v>
+        <v>10.1832961</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -1105,7 +1106,7 @@
         <v>14.570945153199997</v>
       </c>
       <c r="C5" s="1">
-        <v>16.232625200000001</v>
+        <v>15.8174274</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -1116,7 +1117,7 @@
         <v>13.042712700000001</v>
       </c>
       <c r="C6" s="1">
-        <v>12.341751695000001</v>
+        <v>11.746712</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -1127,7 +1128,7 @@
         <v>10.565674063500001</v>
       </c>
       <c r="C7" s="1">
-        <v>14.565941799999999</v>
+        <v>14.619760100000001</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -1138,7 +1139,7 @@
         <v>22.186550787999998</v>
       </c>
       <c r="C8" s="1">
-        <v>10.404058984000001</v>
+        <v>10.1704145</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -1149,7 +1150,7 @@
         <v>27.562345714999999</v>
       </c>
       <c r="C9" s="1">
-        <v>23.378130599999999</v>
+        <v>23.058410299999998</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -1160,7 +1161,7 @@
         <v>21.088647905779997</v>
       </c>
       <c r="C10" s="1">
-        <v>14.196419000000001</v>
+        <v>14.072506799999999</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -1171,7 +1172,7 @@
         <v>18.630064737999998</v>
       </c>
       <c r="C11" s="1">
-        <v>13.919755455799999</v>
+        <v>38.941495600000003</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -1182,7 +1183,7 @@
         <v>20.465125691120001</v>
       </c>
       <c r="C12" s="1">
-        <v>23.662476788000003</v>
+        <v>67.316375899999997</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -1193,7 +1194,7 @@
         <v>14.031910436199999</v>
       </c>
       <c r="C13" s="1">
-        <v>13.130050776999999</v>
+        <v>21.3923387</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -1204,7 +1205,7 @@
         <v>17.351059494974404</v>
       </c>
       <c r="C14" s="1">
-        <v>9.3312188690000006</v>
+        <v>2.3051662999999998</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -1460,7 +1461,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1530,7 +1531,7 @@
         <v>27.27</v>
       </c>
       <c r="E4" s="1">
-        <v>30.227573322000005</v>
+        <v>27.614460697000002</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -1547,7 +1548,7 @@
         <v>27.27</v>
       </c>
       <c r="E5" s="1">
-        <v>32.60451681</v>
+        <v>29.597379536999998</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -1564,7 +1565,7 @@
         <v>27.27</v>
       </c>
       <c r="E6" s="1">
-        <v>28.724957527000011</v>
+        <v>24.333428848000011</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -1581,7 +1582,7 @@
         <v>27.27</v>
       </c>
       <c r="E7" s="1">
-        <v>25.169769212999988</v>
+        <v>22.434157786999993</v>
       </c>
     </row>
   </sheetData>
@@ -1599,8 +1600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>

--- a/dashboard/KAM_Dashboard_FY26.xlsx
+++ b/dashboard/KAM_Dashboard_FY26.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://crmnext-my.sharepoint.com/personal/devansh_goel_businessnext_com/Documents/Desktop/New folder/Code/dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="14_{9329AC9F-7251-4B51-8136-87E98A47E201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09320084-D02C-40EE-A7C1-5E81A302B2E6}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="14_{9329AC9F-7251-4B51-8136-87E98A47E201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45D46829-7A4D-4678-B1DB-17F428CE2ECA}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Annual KPIs" sheetId="1" r:id="rId1"/>
@@ -397,8 +397,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -740,20 +740,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -787,7 +787,7 @@
         <v>1.2</v>
       </c>
       <c r="C4">
-        <v>1.1499999999999999</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -798,7 +798,7 @@
         <v>0.95</v>
       </c>
       <c r="C5">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -840,7 +840,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C7 A8:B8" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C3 A8:B8 A6:C7 A4:B4 A5:B5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -859,13 +859,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -901,7 +901,7 @@
       <c r="C4" s="1">
         <v>4.233365</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="2"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -914,7 +914,7 @@
       <c r="C5" s="1">
         <v>14.377390500000001</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -926,7 +926,7 @@
       <c r="C6" s="1">
         <v>13.1970253</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -938,7 +938,7 @@
       <c r="C7" s="1">
         <v>20.910151599999999</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
@@ -950,7 +950,7 @@
       <c r="C8" s="1">
         <v>5.5789847000000004</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
@@ -962,7 +962,7 @@
       <c r="C9" s="1">
         <v>21.392120899999998</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -974,7 +974,7 @@
       <c r="C10" s="1">
         <v>8.1453403000000009</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
@@ -986,7 +986,7 @@
       <c r="C11" s="1">
         <v>67.188736399999996</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
@@ -998,7 +998,7 @@
       <c r="C12" s="1">
         <v>24.515263399999998</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
@@ -1010,7 +1010,7 @@
       <c r="C13" s="1">
         <v>14.112248599999999</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
@@ -1022,7 +1022,7 @@
       <c r="C14" s="1">
         <v>6.4880142999999997</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
@@ -1048,20 +1048,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1239,13 +1239,13 @@
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1369,13 +1369,13 @@
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1467,19 +1467,19 @@
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1613,16 +1613,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1816,13 +1816,13 @@
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
     </row>

--- a/dashboard/KAM_Dashboard_FY26.xlsx
+++ b/dashboard/KAM_Dashboard_FY26.xlsx
@@ -542,7 +542,7 @@
         <v>Capability Development in AI</v>
       </c>
       <c r="C2" t="str">
-        <v>red</v>
+        <v>green</v>
       </c>
     </row>
     <row r="3">
@@ -553,7 +553,7 @@
         <v>Published Account Strategy</v>
       </c>
       <c r="C3" t="str">
-        <v>red</v>
+        <v>amber</v>
       </c>
     </row>
     <row r="4">

--- a/dashboard/KAM_Dashboard_FY26.xlsx
+++ b/dashboard/KAM_Dashboard_FY26.xlsx
@@ -542,7 +542,7 @@
         <v>Capability Development in AI</v>
       </c>
       <c r="C2" t="str">
-        <v>green</v>
+        <v>amber</v>
       </c>
     </row>
     <row r="3">
@@ -564,7 +564,7 @@
         <v>Architecture &amp; Domain Knowledge</v>
       </c>
       <c r="C4" t="str">
-        <v>red</v>
+        <v>amber</v>
       </c>
     </row>
   </sheetData>

--- a/dashboard/KAM_Dashboard_FY26.xlsx
+++ b/dashboard/KAM_Dashboard_FY26.xlsx
@@ -542,7 +542,7 @@
         <v>Capability Development in AI</v>
       </c>
       <c r="C2" t="str">
-        <v>amber</v>
+        <v>red</v>
       </c>
     </row>
     <row r="3">
@@ -553,7 +553,7 @@
         <v>Published Account Strategy</v>
       </c>
       <c r="C3" t="str">
-        <v>amber</v>
+        <v>red</v>
       </c>
     </row>
     <row r="4">
@@ -564,7 +564,7 @@
         <v>Architecture &amp; Domain Knowledge</v>
       </c>
       <c r="C4" t="str">
-        <v>amber</v>
+        <v>red</v>
       </c>
     </row>
   </sheetData>

--- a/dashboard/KAM_Dashboard_FY26.xlsx
+++ b/dashboard/KAM_Dashboard_FY26.xlsx
@@ -41,9 +41,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -407,7 +406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -444,6 +443,9 @@
       <c r="C3" t="str">
         <v>Achievement Till Date</v>
       </c>
+      <c r="D3" t="str">
+        <v>Baseline (Q1)</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -472,10 +474,13 @@
         <v>NPS Score</v>
       </c>
       <c r="B6">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C6">
-        <v>-11</v>
+        <v>-12</v>
+      </c>
+      <c r="D6">
+        <v>-33</v>
       </c>
     </row>
     <row r="7">
@@ -501,12 +506,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D8"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -517,11 +518,6 @@
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <cols>
-    <col min="1" max="1" width="20.83203125" customWidth="1"/>
-    <col min="2" max="2" width="40.83203125" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -568,6 +564,7 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError numberStoredAsText="1" sqref="A1:C4"/>
   </ignoredErrors>
@@ -576,7 +573,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -749,7 +746,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E15"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C15"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -936,7 +933,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1024,7 +1021,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C15"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C7"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1645,6 +1642,7 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError numberStoredAsText="1" sqref="A1:C16"/>
   </ignoredErrors>

--- a/dashboard/KAM_Dashboard_FY26.xlsx
+++ b/dashboard/KAM_Dashboard_FY26.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://crmnext-my.sharepoint.com/personal/devansh_goel_businessnext_com/Documents/Desktop/New folder/Code/dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_3C045957ADE34C9561875593809EA984A19A1B19" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57ADD1A2-B2E7-4B8B-9FBF-AB5FBC8BB0F7}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_3C045957ADE34C9561875593809EA984A19A1B19" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C51FBB8D-160B-44D1-8997-EA43154D62AE}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Annual KPIs" sheetId="1" r:id="rId1"/>
@@ -759,13 +759,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -776,7 +776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -787,7 +787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -801,7 +801,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -812,7 +812,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -823,7 +823,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -837,7 +837,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -848,7 +848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -871,11 +871,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>112</v>
       </c>
@@ -886,7 +886,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -897,7 +897,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -908,7 +908,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>79</v>
       </c>
@@ -931,11 +931,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -946,7 +948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -957,7 +959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -968,7 +970,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -979,7 +981,7 @@
         <v>4.233365</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -990,7 +992,7 @@
         <v>14.377390500000001</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1001,7 +1003,7 @@
         <v>13.1970253</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1012,7 +1014,7 @@
         <v>20.910151599999999</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1023,7 +1025,7 @@
         <v>5.5789847000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1034,7 +1036,7 @@
         <v>21.392120899999998</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1045,7 +1047,7 @@
         <v>8.1453403000000009</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1056,7 +1058,7 @@
         <v>67.188736399999996</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1067,7 +1069,7 @@
         <v>24.515263399999998</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1078,7 +1080,7 @@
         <v>14.112248599999999</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1089,7 +1091,7 @@
         <v>6.4880142999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1112,11 +1114,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -1127,7 +1131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1138,7 +1142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1149,7 +1153,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1160,7 +1164,7 @@
         <v>10.1832961</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1171,7 +1175,7 @@
         <v>15.8174274</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1182,7 +1186,7 @@
         <v>11.746712</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1193,7 +1197,7 @@
         <v>14.619760100000001</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1204,7 +1208,7 @@
         <v>10.1704145</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1215,7 +1219,7 @@
         <v>23.058410299999998</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1226,7 +1230,7 @@
         <v>14.072506799999999</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1237,7 +1241,7 @@
         <v>38.941495600000003</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1248,7 +1252,7 @@
         <v>67.316375899999997</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1259,7 +1263,7 @@
         <v>21.3923387</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1270,7 +1274,7 @@
         <v>2.3051662999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1293,11 +1297,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -1308,7 +1314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1319,7 +1325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1330,7 +1336,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1338,10 +1344,10 @@
         <v>20</v>
       </c>
       <c r="C4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -1349,10 +1355,10 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -1360,10 +1366,10 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -1371,7 +1377,7 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1380,7 +1386,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C7" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C3 A7:B7 A4:B4 A5:B5 A6:B6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1389,11 +1395,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -1404,7 +1412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1415,7 +1423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1426,7 +1434,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1434,10 +1442,10 @@
         <v>25</v>
       </c>
       <c r="C4">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -1445,10 +1453,10 @@
         <v>25</v>
       </c>
       <c r="C5">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -1456,10 +1464,10 @@
         <v>25</v>
       </c>
       <c r="C6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -1467,7 +1475,7 @@
         <v>25</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1476,7 +1484,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C7" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C3 A7:B7 A4:B4 A5:B5 A6:B6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1485,11 +1493,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -1506,7 +1516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1523,7 +1533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1540,7 +1550,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1557,7 +1567,7 @@
         <v>27.614460697000002</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -1574,7 +1584,7 @@
         <v>29.597379536999998</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -1591,7 +1601,7 @@
         <v>24.333428848000011</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -1623,11 +1633,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -1641,7 +1653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1655,7 +1667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -1669,7 +1681,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -1683,7 +1695,7 @@
         <v>15.82</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -1697,7 +1709,7 @@
         <v>20.75</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -1711,7 +1723,7 @@
         <v>50.37</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -1725,7 +1737,7 @@
         <v>27.64</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -1739,7 +1751,7 @@
         <v>3.45</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -1753,7 +1765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -1767,7 +1779,7 @@
         <v>16.02</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -1781,7 +1793,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -1795,7 +1807,7 @@
         <v>15.75</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>55</v>
       </c>
@@ -1824,11 +1836,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -1839,7 +1853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1850,7 +1864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -1861,7 +1875,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -1872,7 +1886,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -1883,7 +1897,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1894,7 +1908,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -1905,7 +1919,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -1916,7 +1930,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -1927,7 +1941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>69</v>
       </c>
@@ -1938,7 +1952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>71</v>
       </c>
@@ -1949,7 +1963,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>72</v>
       </c>
@@ -1960,7 +1974,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>73</v>
       </c>
@@ -1971,7 +1985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>75</v>
       </c>
@@ -1982,7 +1996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -1993,7 +2007,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>79</v>
       </c>
@@ -2018,189 +2032,189 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>111</v>
       </c>

--- a/dashboard/KAM_Dashboard_FY26.xlsx
+++ b/dashboard/KAM_Dashboard_FY26.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://crmnext-my.sharepoint.com/personal/devansh_goel_businessnext_com/Documents/Desktop/New folder/Code/dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_3C045957ADE34C9561875593809EA984A19A1B19" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C51FBB8D-160B-44D1-8997-EA43154D62AE}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_3C045957ADE34C9561875593809EA984A19A1B19" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B9BF10D-3301-4BB5-A373-2E14FDAE8550}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Annual KPIs" sheetId="1" r:id="rId1"/>
@@ -759,11 +759,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.58203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -871,7 +877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>

--- a/dashboard/KAM_Dashboard_FY26.xlsx
+++ b/dashboard/KAM_Dashboard_FY26.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://crmnext-my.sharepoint.com/personal/devansh_goel_businessnext_com/Documents/Desktop/New folder/Code/dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_3C045957ADE34C9561875593809EA984A19A1B19" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B9BF10D-3301-4BB5-A373-2E14FDAE8550}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_72DCAF4F0DB6D8491CCA97B2AAF6C5019ED24C6B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51CE4583-EFC2-469C-9FCF-B8EE136463E5}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Annual KPIs" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="119">
   <si>
     <t>KAM Dashboard - Annual KPIs</t>
   </si>
@@ -376,10 +376,16 @@
     <t>Value</t>
   </si>
   <si>
+    <t>amber</t>
+  </si>
+  <si>
+    <t>Published Account Strategy</t>
+  </si>
+  <si>
     <t>red</t>
   </si>
   <si>
-    <t>Published Account Strategy</t>
+    <t>green</t>
   </si>
 </sst>
 </file>
@@ -759,19 +765,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.58203125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -782,7 +782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -793,7 +793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -807,7 +807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -818,7 +818,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -829,7 +829,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -843,7 +843,7 @@
         <v>-33</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -868,7 +868,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:D5 A7:D8 A6:B6 D6" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:D8" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -879,9 +879,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="40.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>112</v>
       </c>
@@ -892,7 +897,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -903,7 +908,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -911,10 +916,10 @@
         <v>116</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>79</v>
       </c>
@@ -922,7 +927,7 @@
         <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -938,12 +943,12 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -954,7 +959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -965,7 +970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -976,7 +981,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -987,7 +992,7 @@
         <v>4.233365</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -998,7 +1003,7 @@
         <v>14.377390500000001</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1009,7 +1014,7 @@
         <v>13.1970253</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1020,7 +1025,7 @@
         <v>20.910151599999999</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1031,7 +1036,7 @@
         <v>5.5789847000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1042,7 +1047,7 @@
         <v>21.392120899999998</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1053,7 +1058,7 @@
         <v>8.1453403000000009</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1064,7 +1069,7 @@
         <v>67.188736399999996</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1075,7 +1080,7 @@
         <v>24.515263399999998</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1086,7 +1091,7 @@
         <v>14.112248599999999</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1097,7 +1102,7 @@
         <v>6.4880142999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1124,9 +1129,9 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -1137,7 +1142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1148,7 +1153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1159,7 +1164,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1170,7 +1175,7 @@
         <v>10.1832961</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1181,7 +1186,7 @@
         <v>15.8174274</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1192,7 +1197,7 @@
         <v>11.746712</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1203,7 +1208,7 @@
         <v>14.619760100000001</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1214,7 +1219,7 @@
         <v>10.1704145</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1225,7 +1230,7 @@
         <v>23.058410299999998</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1236,7 +1241,7 @@
         <v>14.072506799999999</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1247,7 +1252,7 @@
         <v>38.941495600000003</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1258,7 +1263,7 @@
         <v>67.316375899999997</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1269,7 +1274,7 @@
         <v>21.3923387</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1280,7 +1285,7 @@
         <v>2.3051662999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1304,12 +1309,12 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -1320,7 +1325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1331,7 +1336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1342,7 +1347,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1353,7 +1358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -1364,7 +1369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -1375,7 +1380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -1392,7 +1397,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C3 A7:B7 A4:B4 A5:B5 A6:B6" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C7" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1402,12 +1407,12 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -1418,7 +1423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1429,7 +1434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1440,7 +1445,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1451,7 +1456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -1462,7 +1467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -1473,7 +1478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -1490,7 +1495,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C3 A7:B7 A4:B4 A5:B5 A6:B6" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C7" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1500,12 +1505,12 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -1522,7 +1527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1539,7 +1544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1556,7 +1561,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1573,7 +1578,7 @@
         <v>27.614460697000002</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -1590,7 +1595,7 @@
         <v>29.597379536999998</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -1607,7 +1612,7 @@
         <v>24.333428848000011</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -1643,9 +1648,9 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -1659,7 +1664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1673,7 +1678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -1687,7 +1692,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -1701,7 +1706,7 @@
         <v>15.82</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -1715,7 +1720,7 @@
         <v>20.75</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -1729,7 +1734,7 @@
         <v>50.37</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -1743,7 +1748,7 @@
         <v>27.64</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -1757,7 +1762,7 @@
         <v>3.45</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -1771,7 +1776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -1785,7 +1790,7 @@
         <v>16.02</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -1799,7 +1804,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -1813,7 +1818,7 @@
         <v>15.75</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>55</v>
       </c>
@@ -1842,13 +1847,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -1859,7 +1864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1870,7 +1875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -1881,7 +1886,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -1892,7 +1897,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -1903,7 +1908,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1911,10 +1916,10 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -1922,10 +1927,10 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -1933,10 +1938,10 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -1947,7 +1952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>69</v>
       </c>
@@ -1958,7 +1963,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>71</v>
       </c>
@@ -1966,10 +1971,10 @@
         <v>27</v>
       </c>
       <c r="C11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>72</v>
       </c>
@@ -1980,7 +1985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>73</v>
       </c>
@@ -1991,7 +1996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>75</v>
       </c>
@@ -2002,7 +2007,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -2013,7 +2018,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>79</v>
       </c>
@@ -2027,7 +2032,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C16" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C5 A8:B8 A6:B6 A7:B7 A12:C16 A9:B9 A10:B10 A11:B11" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2038,189 +2043,189 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>111</v>
       </c>
